--- a/dados/previsoes/previsao1410-cuiabavscruzeiro_modelo2.xlsx
+++ b/dados/previsoes/previsao1410-cuiabavscruzeiro_modelo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Bet\dados\previsoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358380EB-BD40-463D-A250-AAE3445626AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F19E0-3AB7-40DC-9290-62571933C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="1785" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1665" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
